--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tcracingf4-my.sharepoint.com/personal/data_tcracingf4_onmicrosoft_com/Documents/Horario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3937F645-9A1E-43F7-AC02-93447DA2F002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{CD6E8BE2-3C28-4DFB-8B69-CE5AEF658472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{868F19B9-1778-49B5-9E7C-7F099E9D7AFF}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="65">
   <si>
     <t>Time</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Track Walk</t>
   </si>
   <si>
-    <t>2:00</t>
-  </si>
-  <si>
     <t>Official Previous Test 1</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>Verifications</t>
-  </si>
-  <si>
-    <t>18:30</t>
   </si>
   <si>
     <t>Driver's Briefing</t>
@@ -261,7 +255,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -867,9 +861,6 @@
     <xf numFmtId="20" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,40 +918,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -973,15 +973,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1437,27 +1428,27 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="6.109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A1" s="56">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55">
         <f>24*60</f>
         <v>1440</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -1465,167 +1456,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="39"/>
       <c r="C3" s="39">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1"/>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42">
         <v>0.5</v>
       </c>
       <c r="C5" s="41"/>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40"/>
       <c r="C6" s="41"/>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40"/>
       <c r="C7" s="41"/>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="42">
         <v>0.75</v>
       </c>
       <c r="C8" s="42">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1"/>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="43">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="C10" s="43">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="43">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C11" s="43">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="43">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="43">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="45" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="57"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="52"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="47">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="47">
+        <v>0.5625</v>
+      </c>
+      <c r="C17" s="47">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="47">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="45" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="57"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="52"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="48">
         <v>0.375</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1">
-      <c r="B11" s="43">
-        <v>0.54861111111111116</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1">
-      <c r="B12" s="43">
-        <v>0.625</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1">
-      <c r="B13" s="44" t="s">
+      <c r="C20" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="46" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="53"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1">
-      <c r="B15" s="48">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C15" s="48" t="s">
+      <c r="D20" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="48">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="C21" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1">
-      <c r="B16" s="48">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1">
-      <c r="B17" s="48">
-        <v>0.5625</v>
-      </c>
-      <c r="C17" s="48">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1">
-      <c r="B18" s="48">
-        <v>0.63888888888888884</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="54" t="s">
+      <c r="D21" s="54" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="46" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A19" s="58"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="53"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1">
-      <c r="B20" s="49">
-        <v>0.375</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1">
-      <c r="B21" s="49">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1640,54 +1631,54 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="16"/>
       <c r="D2" s="24"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" hidden="1" customHeight="1">
+    <row r="3" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>0.375</v>
       </c>
@@ -1695,20 +1686,20 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <f>A5-120/Config!A1</f>
         <v>0.41666666666666669</v>
@@ -1718,20 +1709,20 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <f>Config!B5</f>
         <v>0.5</v>
@@ -1744,16 +1735,16 @@
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <f>Config!B6</f>
         <v>0</v>
@@ -1764,53 +1755,53 @@
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" hidden="1" customHeight="1">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
+    <row r="7" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" hidden="1" customHeight="1">
-      <c r="A8" s="74">
+    <row r="8" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="67">
         <f>Config!B7</f>
         <v>0</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <f>Config!B8</f>
         <v>0.75</v>
@@ -1824,456 +1815,451 @@
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" hidden="1" customHeight="1">
-      <c r="A10" s="68">
+    <row r="10" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="69">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="16"/>
       <c r="D12" s="24"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="18.75" hidden="1" customHeight="1">
-      <c r="A13" s="70">
+    <row r="13" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="73">
         <f>A19-90/Config!A1</f>
-        <v>0.3125</v>
-      </c>
-      <c r="B13" s="71"/>
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="B13" s="74"/>
       <c r="C13" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A14" s="64">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="65">
         <f>A15-Config!C3</f>
-        <v>0.32291666666666663</v>
-      </c>
-      <c r="B14" s="65"/>
+        <v>0.35763888888888884</v>
+      </c>
+      <c r="B14" s="66"/>
       <c r="C14" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A15" s="64">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="65">
         <f>A19-60/Config!A1</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B15" s="65"/>
+        <v>0.36805555555555552</v>
+      </c>
+      <c r="B15" s="66"/>
       <c r="C15" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" hidden="1" customHeight="1">
+    <row r="16" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="6"/>
       <c r="C16" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" hidden="1" customHeight="1">
-      <c r="A17" s="64">
+    <row r="17" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="65">
         <f>A18-5/Config!A1</f>
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="B17" s="65"/>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B17" s="66"/>
       <c r="C17" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A18" s="66">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="71">
         <f>A19-15/Config!A1</f>
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="B18" s="67"/>
+        <v>0.39930555555555552</v>
+      </c>
+      <c r="B18" s="72"/>
       <c r="C18" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <f>Config!B10</f>
-        <v>0.375</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="B19" s="13">
         <f>A19+Config!C10</f>
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="35">
         <f>A24-B19</f>
-        <v>9.0277777777777846E-2</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <f>B19</f>
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="B20" s="6">
         <f>A20+25/Config!A1</f>
-        <v>0.47569444444444442</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="6"/>
       <c r="C21" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G21" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" hidden="1" customHeight="1">
-      <c r="A22" s="64">
+    <row r="22" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="65">
         <f>A23-5/Config!A1</f>
-        <v>0.53472222222222232</v>
-      </c>
-      <c r="B22" s="65"/>
+        <v>0.63194444444444453</v>
+      </c>
+      <c r="B22" s="66"/>
       <c r="C22" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A23" s="66">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="71">
         <f>A24-15/Config!A1</f>
-        <v>0.53819444444444453</v>
-      </c>
-      <c r="B23" s="67"/>
+        <v>0.63541666666666674</v>
+      </c>
+      <c r="B23" s="72"/>
       <c r="C23" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <f>Config!B11</f>
-        <v>0.54861111111111116</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="B24" s="13">
         <f>A24+Config!C11</f>
-        <v>0.63194444444444453</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <f>B24</f>
-        <v>0.63194444444444453</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="B25" s="6">
         <f>A25+25/Config!A1</f>
-        <v>0.64930555555555569</v>
+        <v>0.69097222222222232</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <f>Config!B12</f>
-        <v>0.625</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="B26" s="6">
         <f>A26+Config!C12</f>
-        <v>0.75</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="6"/>
       <c r="C27" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="6"/>
       <c r="C28" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A29" s="17" t="str">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
         <f>Config!B13</f>
-        <v>18:30</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="B29" s="6">
         <f>A29+30/Config!A1</f>
-        <v>0.79166666666666674</v>
+        <v>0.72916666666666674</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G29" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" hidden="1" customHeight="1">
-      <c r="A30" s="68">
+    <row r="30" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="69">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G30" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1"/>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1"/>
-    <row r="33" ht="18.75" customHeight="1"/>
-    <row r="34" ht="18.75" customHeight="1"/>
-    <row r="35" ht="18.75" customHeight="1"/>
-    <row r="36" ht="18.75" customHeight="1"/>
-    <row r="37" ht="18.75" customHeight="1"/>
-    <row r="38" ht="18.75" customHeight="1"/>
-    <row r="39" ht="18.75" customHeight="1"/>
-    <row r="40" ht="18.75" customHeight="1"/>
-    <row r="41" ht="18.75" customHeight="1"/>
-    <row r="42" ht="18.75" customHeight="1"/>
-    <row r="43" ht="18.75" customHeight="1"/>
-    <row r="44" ht="18.75" customHeight="1"/>
-    <row r="45" ht="18.75" customHeight="1"/>
-    <row r="46" ht="18.75" customHeight="1"/>
-    <row r="47" ht="18.75" customHeight="1"/>
-    <row r="48" ht="18.75" customHeight="1"/>
-    <row r="49" ht="18.75" customHeight="1"/>
-    <row r="50" ht="18.75" customHeight="1"/>
-    <row r="51" ht="18.75" customHeight="1"/>
-    <row r="52" ht="18.75" customHeight="1"/>
-    <row r="53" ht="18.75" customHeight="1"/>
-    <row r="54" ht="18.75" customHeight="1"/>
-    <row r="55" ht="18.75" customHeight="1"/>
-    <row r="56" ht="18.75" customHeight="1"/>
-    <row r="57" ht="18.75" customHeight="1"/>
-    <row r="58" ht="18.75" customHeight="1"/>
-    <row r="59" ht="18.75" customHeight="1"/>
-    <row r="60" ht="18.75" customHeight="1"/>
-    <row r="61" ht="18.75" customHeight="1"/>
-    <row r="62" ht="18.75" customHeight="1"/>
-    <row r="63" ht="18.75" customHeight="1"/>
-    <row r="64" ht="18.75" customHeight="1"/>
-    <row r="65" ht="18.75" customHeight="1"/>
-    <row r="66" ht="18.75" customHeight="1"/>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A30:B30"/>
@@ -2282,6 +2268,11 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="2.2834645669291338" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2300,175 +2291,175 @@
   </sheetPr>
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="61"/>
-    <col min="8" max="16384" width="9.140625" style="10"/>
+    <col min="7" max="7" width="9.109375" style="60"/>
+    <col min="8" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="63" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A2" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="81"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="76"/>
       <c r="C2" s="29"/>
       <c r="D2" s="30"/>
       <c r="E2" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="61">
+        <v>30</v>
+      </c>
+      <c r="G2" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A3" s="82">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="77">
         <f>A9-90/Config!A1-Config!C3</f>
         <v>0.34375</v>
       </c>
-      <c r="B3" s="71"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="61">
+        <v>30</v>
+      </c>
+      <c r="G3" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="76">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78">
         <f>A5-Config!C3</f>
         <v>0.36458333333333331</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="61">
+        <v>30</v>
+      </c>
+      <c r="G4" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A5" s="76">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78">
         <f>A9-60/Config!A1</f>
         <v>0.375</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="61">
+        <v>30</v>
+      </c>
+      <c r="G5" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="61">
+        <v>30</v>
+      </c>
+      <c r="G6" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="76">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78">
         <f>A8-5/Config!A1</f>
         <v>0.40277777777777779</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="61">
+        <v>43</v>
+      </c>
+      <c r="G7" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A8" s="76">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78">
         <f>A9-15/Config!A1</f>
         <v>0.40625</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="61">
+        <v>43</v>
+      </c>
+      <c r="G8" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <f>Config!B15</f>
         <v>0.41666666666666669</v>
@@ -2478,23 +2469,23 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="13">
         <f>A18-B9</f>
         <v>9.027777777777779E-2</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="61">
+        <v>43</v>
+      </c>
+      <c r="G9" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <f>B9+5/Config!A1</f>
         <v>0.43402777777777779</v>
@@ -2504,152 +2495,152 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="61">
+        <v>30</v>
+      </c>
+      <c r="G10" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A11" s="76">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="78">
         <f>A12-5/Config!A1</f>
         <v>0.49791666666666679</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="61">
+        <v>43</v>
+      </c>
+      <c r="G11" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A12" s="76">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78">
         <f>A13-15/Config!A1</f>
         <v>0.50138888888888899</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="61">
+        <v>43</v>
+      </c>
+      <c r="G12" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A13" s="76">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="78">
         <f>A14-5/Config!A1</f>
         <v>0.51180555555555562</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="61">
+        <v>43</v>
+      </c>
+      <c r="G13" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A14" s="76">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="78">
         <f>A15</f>
         <v>0.51527777777777783</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="61">
+        <v>43</v>
+      </c>
+      <c r="G14" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A15" s="76">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="78">
         <f>A16-2/Config!A1</f>
         <v>0.51527777777777783</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="61">
+        <v>43</v>
+      </c>
+      <c r="G15" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A16" s="76">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="78">
         <f>A17-2/Config!A1</f>
         <v>0.51666666666666672</v>
       </c>
-      <c r="B16" s="65"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="61">
+        <v>43</v>
+      </c>
+      <c r="G16" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A17" s="76">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78">
         <f>A18-4/Config!A1</f>
         <v>0.5180555555555556</v>
       </c>
-      <c r="B17" s="65"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="61">
+        <v>43</v>
+      </c>
+      <c r="G17" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <f>Config!B16</f>
         <v>0.52083333333333337</v>
@@ -2659,23 +2650,23 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="13">
         <f>A30-B18</f>
         <v>9.3749999999999889E-2</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="61">
+        <v>43</v>
+      </c>
+      <c r="G18" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <f>B18</f>
         <v>0.54513888888888895</v>
@@ -2685,19 +2676,19 @@
         <v>0.56250000000000011</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="61">
+        <v>30</v>
+      </c>
+      <c r="G19" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <f>Config!B17</f>
         <v>0.5625</v>
@@ -2707,184 +2698,184 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="61">
+        <v>43</v>
+      </c>
+      <c r="G20" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A21" s="76"/>
-      <c r="B21" s="65"/>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="61">
+      <c r="F22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A22" s="76"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A23" s="76">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="78">
         <f>A24-5/Config!A1</f>
         <v>0.61597222222222225</v>
       </c>
-      <c r="B23" s="65"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="61">
+        <v>43</v>
+      </c>
+      <c r="G23" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A24" s="76">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="78">
         <f>A25-15/Config!A1</f>
         <v>0.61944444444444446</v>
       </c>
-      <c r="B24" s="65"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="61">
+        <v>43</v>
+      </c>
+      <c r="G24" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A25" s="76">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78">
         <f>A26-5/Config!A1</f>
         <v>0.62986111111111109</v>
       </c>
-      <c r="B25" s="65"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="61">
+        <v>43</v>
+      </c>
+      <c r="G25" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A26" s="76">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78">
         <f>A27</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="B26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="61">
+        <v>43</v>
+      </c>
+      <c r="G26" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="76">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78">
         <f>A28-2/Config!A1</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="B27" s="65"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="61">
+        <v>43</v>
+      </c>
+      <c r="G27" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A28" s="76">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="78">
         <f>A29-2/Config!A1</f>
         <v>0.63472222222222219</v>
       </c>
-      <c r="B28" s="65"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="61">
+        <v>43</v>
+      </c>
+      <c r="G28" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A29" s="76">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="78">
         <f>A30-4/Config!A1</f>
         <v>0.63611111111111107</v>
       </c>
-      <c r="B29" s="65"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="61">
+        <v>43</v>
+      </c>
+      <c r="G29" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <f>Config!B18</f>
         <v>0.63888888888888884</v>
@@ -2894,20 +2885,20 @@
         <v>0.65625</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="61">
+        <v>43</v>
+      </c>
+      <c r="G30" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>0.65625</v>
       </c>
@@ -2916,19 +2907,19 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="61">
+        <v>30</v>
+      </c>
+      <c r="G31" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>0.78333333333333333</v>
       </c>
@@ -2936,172 +2927,172 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="61">
+        <v>30</v>
+      </c>
+      <c r="G32" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A33" s="77">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="79">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B33" s="78"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="61">
+        <v>43</v>
+      </c>
+      <c r="G33" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A35" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="81"/>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="76"/>
       <c r="C35" s="29"/>
       <c r="D35" s="30"/>
       <c r="E35" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="61">
+        <v>30</v>
+      </c>
+      <c r="G35" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A36" s="82">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="77">
         <f>A42-90/Config!A1-Config!C3</f>
         <v>0.30208333333333331</v>
       </c>
-      <c r="B36" s="71"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="61">
+        <v>30</v>
+      </c>
+      <c r="G36" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A37" s="76">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="78">
         <f>A38-Config!C3</f>
         <v>0.32291666666666663</v>
       </c>
-      <c r="B37" s="65"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="61">
+        <v>30</v>
+      </c>
+      <c r="G37" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A38" s="76">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="78">
         <f>A42-60/Config!A1</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="61">
+        <v>30</v>
+      </c>
+      <c r="G38" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="61">
+        <v>30</v>
+      </c>
+      <c r="G39" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A40" s="76">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="78">
         <f>A42-5/Config!A1</f>
         <v>0.37152777777777779</v>
       </c>
-      <c r="B40" s="65"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="61">
+        <v>43</v>
+      </c>
+      <c r="G40" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A41" s="76">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="78">
         <f>A42-15/Config!A1</f>
         <v>0.36458333333333331</v>
       </c>
-      <c r="B41" s="65"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="61">
+        <v>43</v>
+      </c>
+      <c r="G41" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <f>Config!B20</f>
         <v>0.375</v>
@@ -3111,23 +3102,23 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42" s="13">
         <f>A51-B42</f>
         <v>0.14930555555555552</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="61">
+        <v>43</v>
+      </c>
+      <c r="G42" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>0.39583333333333331</v>
       </c>
@@ -3135,153 +3126,153 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="61">
+        <v>30</v>
+      </c>
+      <c r="G43" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A44" s="76">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="78">
         <f>A45-5/Config!A1</f>
         <v>0.51527777777777783</v>
       </c>
-      <c r="B44" s="65"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="61">
+        <v>43</v>
+      </c>
+      <c r="G44" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A45" s="76">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="78">
         <f>A46-15/Config!A1</f>
         <v>0.51875000000000004</v>
       </c>
-      <c r="B45" s="65"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="61">
+        <v>43</v>
+      </c>
+      <c r="G45" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A46" s="76">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="78">
         <f>A47-5/Config!A1</f>
         <v>0.52916666666666667</v>
       </c>
-      <c r="B46" s="65"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="61">
+        <v>43</v>
+      </c>
+      <c r="G46" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A47" s="76">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="78">
         <f>A48</f>
         <v>0.53263888888888888</v>
       </c>
-      <c r="B47" s="65"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="61">
+        <v>43</v>
+      </c>
+      <c r="G47" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A48" s="76">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="78">
         <f>A49-2/Config!A1</f>
         <v>0.53263888888888888</v>
       </c>
-      <c r="B48" s="65"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="61">
+        <v>43</v>
+      </c>
+      <c r="G48" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A49" s="76">
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="78">
         <f>A50-2/Config!A1</f>
         <v>0.53402777777777777</v>
       </c>
-      <c r="B49" s="65"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="61">
+        <v>43</v>
+      </c>
+      <c r="G49" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A50" s="76">
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="78">
         <f>A51-4/Config!A1</f>
         <v>0.53541666666666665</v>
       </c>
-      <c r="B50" s="65"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="61">
+        <v>43</v>
+      </c>
+      <c r="G50" s="60">
         <v>4</v>
       </c>
-      <c r="J50" s="60"/>
-    </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1">
+      <c r="J50" s="59"/>
+    </row>
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <f>Config!B21</f>
         <v>0.53819444444444442</v>
@@ -3291,20 +3282,20 @@
         <v>0.5625</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" s="61">
+        <v>43</v>
+      </c>
+      <c r="G51" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1">
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <f>B51</f>
         <v>0.5625</v>
@@ -3314,89 +3305,64 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F52" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="78"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="79"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="61">
+      <c r="F54" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A53" s="76"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A54" s="77"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="18.75" customHeight="1"/>
-    <row r="56" spans="1:10" ht="18.75" customHeight="1"/>
-    <row r="57" spans="1:10" ht="18.75" customHeight="1"/>
-    <row r="58" spans="1:10" ht="18.75" customHeight="1"/>
-    <row r="59" spans="1:10" ht="18.75" customHeight="1"/>
-    <row r="60" spans="1:10" ht="18.75" customHeight="1"/>
-    <row r="61" spans="1:10" ht="18.75" customHeight="1"/>
-    <row r="62" spans="1:10" ht="18.75" customHeight="1"/>
-    <row r="63" spans="1:10" ht="18.75" customHeight="1"/>
-    <row r="64" spans="1:10" ht="18.75" customHeight="1"/>
-    <row r="65" ht="18.75" customHeight="1"/>
-    <row r="66" ht="18.75" customHeight="1"/>
+    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A54:B54"/>
@@ -3411,6 +3377,31 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tcracingf4-my.sharepoint.com/personal/data_tcracingf4_onmicrosoft_com/Documents/Horario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tcracingf4.sharepoint.com/sites/TCRacing/Shared Documents/General/2025/007 Events/006 SF4C Motorland/010 Engineering info/Horario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{CD6E8BE2-3C28-4DFB-8B69-CE5AEF658472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{868F19B9-1778-49B5-9E7C-7F099E9D7AFF}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{DEB28227-7A47-4B5A-8083-3563885AB13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C076C04-6A4A-404E-819E-A480AB930893}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="65">
   <si>
     <t>Time</t>
   </si>
@@ -79,21 +79,9 @@
     <t>Official Previous Test 2</t>
   </si>
   <si>
-    <t>3:00</t>
-  </si>
-  <si>
-    <t>Verifications</t>
-  </si>
-  <si>
-    <t>Driver's Briefing</t>
-  </si>
-  <si>
     <t>0:20</t>
   </si>
   <si>
-    <t xml:space="preserve">Qualifying Session 1 </t>
-  </si>
-  <si>
     <t>0:35</t>
   </si>
   <si>
@@ -103,12 +91,6 @@
     <t>Lunch Break</t>
   </si>
   <si>
-    <t>0:25</t>
-  </si>
-  <si>
-    <t>Sprint Race (20 min. + 1L )</t>
-  </si>
-  <si>
     <t>Qualifying Session 2</t>
   </si>
   <si>
@@ -245,6 +227,24 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>Official Previous Test 3</t>
+  </si>
+  <si>
+    <t>Qualifiying Session 1</t>
+  </si>
+  <si>
+    <t>Race 2  (25min + 1L)</t>
+  </si>
+  <si>
+    <t>Race 1 (30min + 1L)</t>
+  </si>
+  <si>
+    <t>Race 3 (30 min. + 1L )</t>
+  </si>
+  <si>
+    <t>Qualifying Session 1</t>
   </si>
 </sst>
 </file>
@@ -1428,27 +1428,27 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="1" width="6.1796875" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="55">
         <f>24*60</f>
         <v>1440</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="39"/>
       <c r="C3" s="39">
         <v>1.0416666666666666E-2</v>
@@ -1465,8 +1465,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="42">
         <v>0.5</v>
       </c>
@@ -1475,21 +1475,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="40"/>
       <c r="C6" s="41"/>
       <c r="D6" s="50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="40"/>
       <c r="C7" s="41"/>
       <c r="D7" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="42">
         <v>0.75</v>
       </c>
@@ -1500,77 +1500,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="43">
-        <v>0.40972222222222221</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C10" s="43">
-        <v>2.7777777777777776E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="43">
-        <v>0.64583333333333337</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="C11" s="43">
-        <v>2.7777777777777776E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="43">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>9</v>
+        <v>0.5625</v>
+      </c>
+      <c r="C12" s="43">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="43">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C13" s="44"/>
+        <v>0.71875</v>
+      </c>
+      <c r="C13" s="44">
+        <v>2.4305555555555556E-2</v>
+      </c>
       <c r="D13" s="51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="45" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="45" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="57"/>
       <c r="C14" s="46"/>
       <c r="D14" s="52"/>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="47">
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="47">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>14</v>
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C16" s="47">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="47">
         <v>0.5625</v>
       </c>
@@ -1578,45 +1580,45 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="47">
-        <v>0.63888888888888884</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>17</v>
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="C18" s="47">
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="45" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="45" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="57"/>
       <c r="C19" s="46"/>
       <c r="D19" s="52"/>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="48">
         <v>0.375</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="48">
         <v>0.53819444444444442</v>
       </c>
       <c r="C21" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="54" t="s">
         <v>14</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1631,45 +1633,45 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="6.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="63"/>
       <c r="B2" s="64"/>
       <c r="C2" s="16"/>
@@ -1678,7 +1680,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>0.375</v>
       </c>
@@ -1686,20 +1688,20 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <f>A5-120/Config!A1</f>
         <v>0.41666666666666669</v>
@@ -1709,20 +1711,20 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <f>Config!B5</f>
         <v>0.5</v>
@@ -1735,16 +1737,16 @@
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <f>Config!B6</f>
         <v>0</v>
@@ -1755,33 +1757,33 @@
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
       <c r="C7" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="67">
         <f>Config!B7</f>
         <v>0</v>
@@ -1792,16 +1794,16 @@
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <f>Config!B8</f>
         <v>0.75</v>
@@ -1815,39 +1817,39 @@
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="69">
         <v>0.85416666666666663</v>
       </c>
       <c r="B10" s="70"/>
       <c r="C10" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="63"/>
       <c r="B12" s="64"/>
       <c r="C12" s="16"/>
@@ -1856,408 +1858,408 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="73">
         <f>A19-90/Config!A1</f>
-        <v>0.34722222222222221</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B13" s="74"/>
       <c r="C13" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="65">
         <f>A15-Config!C3</f>
-        <v>0.35763888888888884</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="65">
         <f>A19-60/Config!A1</f>
-        <v>0.36805555555555552</v>
+        <v>0.3125</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="6"/>
       <c r="C16" s="20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="65">
         <f>A18-5/Config!A1</f>
-        <v>0.39583333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="71">
         <f>A19-15/Config!A1</f>
-        <v>0.39930555555555552</v>
+        <v>0.34375</v>
       </c>
       <c r="B18" s="72"/>
       <c r="C18" s="20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <f>Config!B10</f>
-        <v>0.40972222222222221</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="B19" s="13">
         <f>A19+Config!C10</f>
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="35">
         <f>A24-B19</f>
-        <v>0.20833333333333337</v>
+        <v>0.14930555555555558</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <f>B19</f>
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="B20" s="6">
         <f>A20+25/Config!A1</f>
-        <v>0.4548611111111111</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="6"/>
       <c r="C21" s="20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="65">
         <f>A23-5/Config!A1</f>
-        <v>0.63194444444444453</v>
+        <v>0.51041666666666674</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="71">
         <f>A24-15/Config!A1</f>
-        <v>0.63541666666666674</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="B23" s="72"/>
       <c r="C23" s="20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <f>Config!B11</f>
-        <v>0.64583333333333337</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="B24" s="13">
         <f>A24+Config!C11</f>
-        <v>0.67361111111111116</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <f>B24</f>
-        <v>0.67361111111111116</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="B25" s="6">
         <f>A25+25/Config!A1</f>
-        <v>0.69097222222222232</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <f>Config!B12</f>
-        <v>0.68055555555555558</v>
+        <v>0.5625</v>
       </c>
       <c r="B26" s="6">
         <f>A26+Config!C12</f>
-        <v>0.80555555555555558</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
       <c r="B27" s="6"/>
       <c r="C27" s="20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G27" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="6"/>
       <c r="C28" s="20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <f>Config!B13</f>
-        <v>0.70833333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="B29" s="6">
         <f>A29+30/Config!A1</f>
-        <v>0.72916666666666674</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G29" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="69">
         <v>0.83333333333333337</v>
       </c>
       <c r="B30" s="70"/>
       <c r="C30" s="21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G30" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A22:B22"/>
@@ -2291,404 +2293,401 @@
   </sheetPr>
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="60"/>
-    <col min="8" max="16384" width="9.109375" style="10"/>
+    <col min="7" max="7" width="9.1796875" style="60"/>
+    <col min="8" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="75" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="29"/>
       <c r="D2" s="30"/>
       <c r="E2" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G2" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="77">
         <f>A9-90/Config!A1-Config!C3</f>
-        <v>0.34375</v>
+        <v>0.28125</v>
       </c>
       <c r="B3" s="74"/>
       <c r="C3" s="31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G3" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="78">
         <f>A5-Config!C3</f>
-        <v>0.36458333333333331</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="78">
         <f>A9-60/Config!A1</f>
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G6" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="78">
         <f>A8-5/Config!A1</f>
-        <v>0.40277777777777779</v>
+        <v>0.34027777777777779</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G7" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="78">
         <f>A9-15/Config!A1</f>
-        <v>0.40625</v>
+        <v>0.34375</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G8" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <f>Config!B15</f>
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="B9" s="13">
         <f>A9+Config!C15</f>
-        <v>0.43055555555555558</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D9" s="13">
         <f>A18-B9</f>
-        <v>9.027777777777779E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G9" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <f>B9+5/Config!A1</f>
-        <v>0.43402777777777779</v>
+        <v>0.37152777777777779</v>
       </c>
       <c r="B10" s="6">
         <f>A10+20/Config!A1</f>
-        <v>0.44791666666666669</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G10" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="78">
         <f>A12-5/Config!A1</f>
-        <v>0.49791666666666679</v>
+        <v>0.50138888888888899</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G11" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="78">
         <f>A13-15/Config!A1</f>
-        <v>0.50138888888888899</v>
+        <v>0.5048611111111112</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G12" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="78">
         <f>A14-5/Config!A1</f>
-        <v>0.51180555555555562</v>
+        <v>0.51527777777777783</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G13" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="78">
         <f>A15</f>
-        <v>0.51527777777777783</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G14" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="78">
         <f>A16-2/Config!A1</f>
-        <v>0.51527777777777783</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G15" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="78">
         <f>A17-2/Config!A1</f>
-        <v>0.51666666666666672</v>
+        <v>0.52013888888888893</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G16" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="78">
         <f>A18-4/Config!A1</f>
-        <v>0.5180555555555556</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G17" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
-        <f>Config!B16</f>
-        <v>0.52083333333333337</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="B18" s="13">
-        <f>A18+Config!C21</f>
-        <v>0.54513888888888895</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D18" s="13">
-        <f>A30-B18</f>
-        <v>9.3749999999999889E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G18" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <f>B18</f>
-        <v>0.54513888888888895</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="B19" s="6">
         <f>A19+25/Config!A1</f>
-        <v>0.56250000000000011</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G19" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>Config!B17</f>
         <v>0.5625</v>
@@ -2698,228 +2697,227 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G20" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="78"/>
       <c r="B21" s="66"/>
       <c r="C21" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G21" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="78"/>
       <c r="B22" s="66"/>
       <c r="C22" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G22" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="78">
         <f>A24-5/Config!A1</f>
-        <v>0.61597222222222225</v>
+        <v>0.69583333333333341</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G23" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="78">
         <f>A25-15/Config!A1</f>
-        <v>0.61944444444444446</v>
+        <v>0.69930555555555562</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G24" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="78">
         <f>A26-5/Config!A1</f>
-        <v>0.62986111111111109</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G25" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="78">
         <f>A27</f>
-        <v>0.6333333333333333</v>
+        <v>0.71319444444444446</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G26" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="78">
         <f>A28-2/Config!A1</f>
-        <v>0.6333333333333333</v>
+        <v>0.71319444444444446</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G27" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="78">
         <f>A29-2/Config!A1</f>
-        <v>0.63472222222222219</v>
+        <v>0.71458333333333335</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G28" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="78">
         <f>A30-4/Config!A1</f>
-        <v>0.63611111111111107</v>
+        <v>0.71597222222222223</v>
       </c>
       <c r="B29" s="66"/>
       <c r="C29" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G29" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
-        <f>Config!B18</f>
-        <v>0.63888888888888884</v>
+        <v>0.71875</v>
       </c>
       <c r="B30" s="13">
         <f>A30+Config!C18</f>
-        <v>0.65625</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G30" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
-        <v>0.65625</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="B31" s="6">
         <f>A31+20/Config!A1</f>
-        <v>0.67013888888888884</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G31" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>0.78333333333333333</v>
       </c>
@@ -2927,172 +2925,172 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G32" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="79">
         <v>0.83333333333333337</v>
       </c>
       <c r="B33" s="80"/>
       <c r="C33" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G33" s="60">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="81"/>
       <c r="B34" s="81"/>
       <c r="C34" s="81"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="75" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B35" s="76"/>
       <c r="C35" s="29"/>
       <c r="D35" s="30"/>
       <c r="E35" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G35" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="77">
         <f>A42-90/Config!A1-Config!C3</f>
         <v>0.30208333333333331</v>
       </c>
       <c r="B36" s="74"/>
       <c r="C36" s="31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G36" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="78">
         <f>A38-Config!C3</f>
         <v>0.32291666666666663</v>
       </c>
       <c r="B37" s="66"/>
       <c r="C37" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G37" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="78">
         <f>A42-60/Config!A1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="B38" s="66"/>
       <c r="C38" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G38" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G39" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="78">
         <f>A42-5/Config!A1</f>
         <v>0.37152777777777779</v>
       </c>
       <c r="B40" s="66"/>
       <c r="C40" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G40" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="78">
         <f>A42-15/Config!A1</f>
         <v>0.36458333333333331</v>
       </c>
       <c r="B41" s="66"/>
       <c r="C41" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G41" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <f>Config!B20</f>
         <v>0.375</v>
@@ -3102,23 +3100,23 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D42" s="13">
         <f>A51-B42</f>
         <v>0.14930555555555552</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G42" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>0.39583333333333331</v>
       </c>
@@ -3126,153 +3124,153 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G43" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="78">
         <f>A45-5/Config!A1</f>
         <v>0.51527777777777783</v>
       </c>
       <c r="B44" s="66"/>
       <c r="C44" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G44" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="78">
         <f>A46-15/Config!A1</f>
         <v>0.51875000000000004</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G45" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="78">
         <f>A47-5/Config!A1</f>
         <v>0.52916666666666667</v>
       </c>
       <c r="B46" s="66"/>
       <c r="C46" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G46" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="78">
         <f>A48</f>
         <v>0.53263888888888888</v>
       </c>
       <c r="B47" s="66"/>
       <c r="C47" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G47" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="78">
         <f>A49-2/Config!A1</f>
         <v>0.53263888888888888</v>
       </c>
       <c r="B48" s="66"/>
       <c r="C48" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G48" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="78">
         <f>A50-2/Config!A1</f>
         <v>0.53402777777777777</v>
       </c>
       <c r="B49" s="66"/>
       <c r="C49" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G49" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="78">
         <f>A51-4/Config!A1</f>
         <v>0.53541666666666665</v>
       </c>
       <c r="B50" s="66"/>
       <c r="C50" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G50" s="60">
         <v>4</v>
       </c>
       <c r="J50" s="59"/>
     </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <f>Config!B21</f>
         <v>0.53819444444444442</v>
@@ -3282,20 +3280,20 @@
         <v>0.5625</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G51" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <f>B51</f>
         <v>0.5625</v>
@@ -3305,62 +3303,62 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G52" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="78"/>
       <c r="B53" s="66"/>
       <c r="C53" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G53" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="79"/>
       <c r="B54" s="80"/>
       <c r="C54" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G54" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="39">
     <mergeCell ref="A50:B50"/>
@@ -3409,4 +3407,282 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67fc1e7-de05-4162-9649-a555f45ec3cd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="994f100a-7a19-4f9e-bbed-5aa004e1ab89" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010009C930D4C159EB46B358B33AD8477FDA" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3c4c2180bf00b429b0ab9d486916561f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67fc1e7-de05-4162-9649-a555f45ec3cd" xmlns:ns3="994f100a-7a19-4f9e-bbed-5aa004e1ab89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a40dba1a21fd5d96fd948ae56f5d7db6" ns2:_="" ns3:_="">
+    <xsd:import namespace="a67fc1e7-de05-4162-9649-a555f45ec3cd"/>
+    <xsd:import namespace="994f100a-7a19-4f9e-bbed-5aa004e1ab89"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a67fc1e7-de05-4162-9649-a555f45ec3cd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="f6281382-f9a9-4041-bb05-bb48a787945b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="994f100a-7a19-4f9e-bbed-5aa004e1ab89" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e5d0d8a8-99cd-46ce-8796-c2467a204654}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="994f100a-7a19-4f9e-bbed-5aa004e1ab89">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7325711D-C2BE-4C00-A7B3-F07CA5970A35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a67fc1e7-de05-4162-9649-a555f45ec3cd"/>
+    <ds:schemaRef ds:uri="994f100a-7a19-4f9e-bbed-5aa004e1ab89"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765950E4-FC9C-41BE-965D-6BC83C759080}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2592AC6-EA20-4C31-AAEA-2A7D957193E5}"/>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tcracingf4.sharepoint.com/sites/TCRacing/Shared Documents/General/2025/007 Events/007 OCT Barcelona/010 Engineering info/Horario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{DEB28227-7A47-4B5A-8083-3563885AB13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81EB44EF-5098-0042-8743-ACA2313BA43C}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{DEB28227-7A47-4B5A-8083-3563885AB13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0590B5B4-1926-4E0C-B93A-43321B9E6AC1}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -716,24 +716,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -746,52 +728,43 @@
     <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,23 +1224,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="9"/>
+    <col min="4" max="4" width="26.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44">
         <f>24*60</f>
         <v>1440</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="28"/>
       <c r="C3" s="28">
         <v>1.0416666666666666E-2</v>
@@ -1284,8 +1257,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="31">
         <v>0.5</v>
       </c>
@@ -1294,21 +1267,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="30"/>
       <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="30"/>
       <c r="D7" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="31">
         <v>0.75</v>
       </c>
@@ -1319,8 +1292,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="32">
         <v>0.375</v>
       </c>
@@ -1331,7 +1304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="32">
         <v>0.45833333333333331</v>
       </c>
@@ -1342,7 +1315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="32">
         <v>0.57986111111111116</v>
       </c>
@@ -1353,23 +1326,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="32">
         <v>0.62152777777777779</v>
       </c>
       <c r="C13" s="33">
         <v>5.9027777777777776E-2</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="46"/>
       <c r="C14" s="35"/>
       <c r="D14" s="41"/>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="36">
         <v>0.41666666666666669</v>
       </c>
@@ -1380,7 +1353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="36">
         <v>0.52083333333333337</v>
       </c>
@@ -1391,7 +1364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36">
         <v>0.57986111111111116</v>
       </c>
@@ -1402,23 +1375,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="36">
         <v>0.72569444444444442</v>
       </c>
       <c r="C18" s="36">
         <v>5.9027777777777776E-2</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
       <c r="C19" s="35"/>
       <c r="D19" s="41"/>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37">
         <v>0.375</v>
       </c>
@@ -1429,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37">
         <v>0.53819444444444442</v>
       </c>
@@ -1456,18 +1429,18 @@
       <selection activeCell="A12" sqref="A12:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1490,7 +1463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58"/>
       <c r="B2" s="59"/>
       <c r="C2" s="11"/>
@@ -1499,7 +1472,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="5"/>
       <c r="C3" s="15"/>
@@ -1508,7 +1481,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="5"/>
       <c r="C4" s="15"/>
@@ -1517,7 +1490,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="5"/>
       <c r="C5" s="15"/>
@@ -1526,7 +1499,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="7"/>
       <c r="C6" s="15"/>
@@ -1535,7 +1508,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="5"/>
       <c r="C7" s="15"/>
@@ -1544,7 +1517,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60"/>
       <c r="B8" s="61"/>
       <c r="C8" s="15"/>
@@ -1553,7 +1526,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="5"/>
       <c r="C9" s="15"/>
@@ -1562,7 +1535,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
       <c r="B10" s="55"/>
       <c r="C10" s="16"/>
@@ -1571,11 +1544,11 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="11"/>
@@ -1584,7 +1557,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56">
         <f>A19-90/Config!A1</f>
         <v>0.3125</v>
@@ -1604,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <f>A15-Config!C3</f>
         <v>0.32291666666666663</v>
@@ -1624,7 +1597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <f>A19-60/Config!A1</f>
         <v>0.33333333333333331</v>
@@ -1644,7 +1617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="5"/>
       <c r="C16" s="15" t="s">
@@ -1661,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <f>A18-5/Config!A1</f>
         <v>0.3611111111111111</v>
@@ -1681,7 +1654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="52">
         <f>A19-15/Config!A1</f>
         <v>0.36458333333333331</v>
@@ -1701,7 +1674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <f>Config!B10</f>
         <v>0.375</v>
@@ -1713,7 +1686,7 @@
       <c r="C19" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="72"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1724,7 +1697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <f>B19</f>
         <v>0.41319444444444442</v>
@@ -1747,7 +1720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="52">
         <v>0.44791666666666669</v>
       </c>
@@ -1766,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <f>A23-5/Config!A1</f>
         <v>0.4548611111111111</v>
@@ -1786,7 +1759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>0.45833333333333331</v>
       </c>
@@ -1807,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <f>B23</f>
         <v>0.51736111111111116</v>
@@ -1829,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <f>B24</f>
         <v>0.53472222222222221</v>
@@ -1852,7 +1825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>0.61111111111111116</v>
       </c>
@@ -1871,11 +1844,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="64">
         <v>0.62152777777777779</v>
       </c>
-      <c r="B27" s="71">
+      <c r="B27" s="65">
         <v>0.68055555555555558</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -1892,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="5"/>
       <c r="C28" s="15" t="s">
@@ -1909,7 +1882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <f>Config!B13</f>
         <v>0.62152777777777779</v>
@@ -1932,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="54">
         <v>0.83333333333333337</v>
       </c>
@@ -1951,8 +1924,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1961,7 +1934,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1970,7 +1943,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1979,7 +1952,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1988,7 +1961,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1997,7 +1970,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2006,7 +1979,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2015,7 +1988,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2024,7 +1997,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2033,7 +2006,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2042,7 +2015,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2051,7 +2024,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2060,7 +2033,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2069,7 +2042,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2078,7 +2051,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2087,7 +2060,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2096,7 +2069,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2105,7 +2078,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2114,35 +2087,35 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="2.2834645669291338" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2161,23 +2134,23 @@
   </sheetPr>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="49"/>
-    <col min="8" max="16384" width="9.1640625" style="9"/>
+    <col min="7" max="7" width="9.109375" style="49"/>
+    <col min="8" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -2200,7 +2173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58"/>
       <c r="B2" s="59"/>
       <c r="C2" s="11" t="s">
@@ -2211,11 +2184,11 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="77">
         <v>0.30208333333333331</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="15" t="s">
         <v>25</v>
       </c>
@@ -2230,11 +2203,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="73">
         <v>0.32291666666666669</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="15" t="s">
         <v>26</v>
       </c>
@@ -2249,11 +2222,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="73">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="15" t="s">
         <v>28</v>
       </c>
@@ -2268,11 +2241,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="75">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="15" t="s">
         <v>33</v>
       </c>
@@ -2281,13 +2254,13 @@
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>0.375</v>
       </c>
@@ -2297,7 +2270,7 @@
       <c r="C7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
@@ -2308,7 +2281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <f>B7</f>
         <v>0.41319444444444442</v>
@@ -2330,11 +2303,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="75">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="15" t="s">
         <v>33</v>
       </c>
@@ -2343,13 +2316,13 @@
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>0.45833333333333331</v>
       </c>
@@ -2370,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <f>B10</f>
         <v>0.51736111111111116</v>
@@ -2392,7 +2365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>0.57986111111111116</v>
       </c>
@@ -2413,11 +2386,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="73">
         <v>0.61111111111111116</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="15" t="s">
         <v>33</v>
       </c>
@@ -2426,17 +2399,17 @@
         <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="70">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64">
         <v>0.62152777777777779</v>
       </c>
-      <c r="B14" s="71">
+      <c r="B14" s="65">
         <v>0.68055555555555558</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -2453,7 +2426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>0.68055555555555558</v>
       </c>
@@ -2474,16 +2447,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="5"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="77"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="5"/>
       <c r="C17" s="14"/>
@@ -2492,7 +2465,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="59"/>
       <c r="C18" s="11" t="s">
@@ -2503,11 +2476,11 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="77">
         <v>0.34375</v>
       </c>
-      <c r="B19" s="67"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="15" t="s">
         <v>25</v>
       </c>
@@ -2522,11 +2495,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="73">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="15" t="s">
         <v>26</v>
       </c>
@@ -2541,11 +2514,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="62">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="73">
         <v>0.375</v>
       </c>
-      <c r="B21" s="63"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="15" t="s">
         <v>28</v>
       </c>
@@ -2560,11 +2533,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="75">
         <v>0.40625</v>
       </c>
-      <c r="B22" s="65"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="15" t="s">
         <v>33</v>
       </c>
@@ -2573,13 +2546,13 @@
         <v>27</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>0.41666666666666669</v>
       </c>
@@ -2589,7 +2562,7 @@
       <c r="C23" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="2" t="s">
         <v>34</v>
       </c>
@@ -2600,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <f>B23</f>
         <v>0.4548611111111111</v>
@@ -2622,11 +2595,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="64">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="75">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B25" s="65"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="15" t="s">
         <v>33</v>
       </c>
@@ -2635,13 +2608,13 @@
         <v>27</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G25" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>0.52083333333333337</v>
       </c>
@@ -2661,9 +2634,9 @@
       <c r="G26" s="2">
         <v>4</v>
       </c>
-      <c r="H26" s="87"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="69"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <f>B26</f>
         <v>0.57986111111111116</v>
@@ -2684,9 +2657,9 @@
       <c r="G27" s="2">
         <v>4</v>
       </c>
-      <c r="H27" s="87"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="69"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>0.57986111111111116</v>
       </c>
@@ -2706,13 +2679,13 @@
       <c r="G28" s="2">
         <v>4</v>
       </c>
-      <c r="H28" s="87"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62">
+      <c r="H28" s="69"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="73">
         <v>0.67361111111111116</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="15" t="s">
         <v>33</v>
       </c>
@@ -2721,18 +2694,18 @@
         <v>27</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G29" s="2">
         <v>4</v>
       </c>
-      <c r="H29" s="87"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="70">
+      <c r="H29" s="69"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="64">
         <v>0.68402777777777779</v>
       </c>
-      <c r="B30" s="71">
+      <c r="B30" s="65">
         <v>0.74305555555555558</v>
       </c>
       <c r="C30" s="18" t="s">
@@ -2748,9 +2721,9 @@
       <c r="G30" s="2">
         <v>4</v>
       </c>
-      <c r="H30" s="87"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="69"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>0.74305555555555558</v>
       </c>
@@ -2770,381 +2743,395 @@
       <c r="G31" s="2">
         <v>4</v>
       </c>
-      <c r="H31" s="87"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="87"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="87"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="82"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="82"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="82"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="82"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="82"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="82"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="82"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="82"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="82"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="82"/>
-    </row>
-    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="82"/>
-    </row>
-    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="82"/>
-    </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="82"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="82"/>
-    </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="82"/>
-    </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="82"/>
-    </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="82"/>
+      <c r="H31" s="69"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="69"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="69"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="69"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="69"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="69"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="69"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="69"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="69"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="69"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="69"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="69"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="69"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="69"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="71"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="69"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="69"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="71"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="69"/>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="69"/>
+    </row>
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="69"/>
+    </row>
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="71"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="69"/>
       <c r="J50" s="48"/>
     </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="74"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="82"/>
-    </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="73"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="82"/>
-    </row>
-    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="79"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="82"/>
-    </row>
-    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="79"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="82"/>
-    </row>
-    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="81"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="82"/>
-    </row>
-    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="81"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="82"/>
-    </row>
-    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="77"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="87"/>
-    </row>
-    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="77"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="87"/>
-    </row>
-    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="77"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="87"/>
-    </row>
-    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="77"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="87"/>
-    </row>
-    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="77"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="87"/>
-    </row>
-    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="77"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="87"/>
-    </row>
-    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="77"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="87"/>
-    </row>
-    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="77"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="87"/>
-    </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="77"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="87"/>
-    </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="77"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="87"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="77"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="87"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="87"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="77"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="87"/>
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="69"/>
+    </row>
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="69"/>
+    </row>
+    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="71"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="69"/>
+    </row>
+    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="71"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="69"/>
+    </row>
+    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="67"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="69"/>
+    </row>
+    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="67"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="69"/>
+    </row>
+    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="69"/>
+    </row>
+    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="67"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="69"/>
+    </row>
+    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="67"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="69"/>
+    </row>
+    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="67"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="69"/>
+    </row>
+    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="67"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="69"/>
+    </row>
+    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="67"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="69"/>
+    </row>
+    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="69"/>
+    </row>
+    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="69"/>
+    </row>
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="67"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="69"/>
+    </row>
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="67"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="69"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="69"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A54:B54"/>
@@ -3159,20 +3146,6 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -3183,26 +3156,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67fc1e7-de05-4162-9649-a555f45ec3cd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="994f100a-7a19-4f9e-bbed-5aa004e1ab89" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010009C930D4C159EB46B358B33AD8477FDA" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c751a6d7e165fa7e2970997b006a36ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67fc1e7-de05-4162-9649-a555f45ec3cd" xmlns:ns3="994f100a-7a19-4f9e-bbed-5aa004e1ab89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1222c212e42e3667bba84a2667bed7e" ns2:_="" ns3:_="">
     <xsd:import namespace="a67fc1e7-de05-4162-9649-a555f45ec3cd"/>
@@ -3437,7 +3390,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67fc1e7-de05-4162-9649-a555f45ec3cd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="994f100a-7a19-4f9e-bbed-5aa004e1ab89" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9CB342-24D5-49AA-938A-B377E511E831}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a67fc1e7-de05-4162-9649-a555f45ec3cd"/>
+    <ds:schemaRef ds:uri="994f100a-7a19-4f9e-bbed-5aa004e1ab89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765950E4-FC9C-41BE-965D-6BC83C759080}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7325711D-C2BE-4C00-A7B3-F07CA5970A35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3452,16 +3452,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765950E4-FC9C-41BE-965D-6BC83C759080}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9CB342-24D5-49AA-938A-B377E511E831}"/>
 </file>